--- a/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +523,176 @@
       <c r="A11" t="str">
         <v>3</v>
       </c>
+      <c r="C11" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F11" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F12" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F15" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>72_泽娜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +750,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020213810591510</v>
+        <v>02021381059151202010152055104810101051051062060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
@@ -689,6 +689,9 @@
       <c r="C31" t="str">
         <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F31" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -750,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02021381059151202010152055104810101051051062060</v>
+        <v>02021381059151202010152055104810101051051062068</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -693,9 +693,90 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>5</v>
+      </c>
+      <c r="C32" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -753,7 +834,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02021381059151202010152055104810101051051062068</v>
+        <v>0202138105915120201015205510481010105105106206810755101055200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -773,10 +773,96 @@
       <c r="A41" t="str">
         <v>6</v>
       </c>
+      <c r="C41" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>770_弯葱_undefined_undefined_10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>*10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>515_松虫草紫红_scabiosa red_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>7</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F48" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -834,7 +920,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202138105915120201015205510481010105105106206810755101055200</v>
+        <v>020213810591512020101520551048101010510510620681075510105520208*10515101545150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-7.xlsx
@@ -859,6 +859,9 @@
       <c r="C51" t="str">
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -920,7 +923,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020213810591512020101520551048101010510510620681075510105520208*10515101545150</v>
+        <v>020213810591512020101520551048101010510510620681075510105520208*105151015451510</v>
       </c>
     </row>
   </sheetData>
